--- a/config_6.1/banner_style_ui.xlsx
+++ b/config_6.1/banner_style_ui.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="192">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -812,16 +812,34 @@
   <si>
     <t>"act_040_mslb","login","panel"</t>
   </si>
+  <si>
+    <t>超级夺宝</t>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+  </si>
+  <si>
+    <t>"act_cjdb","panel"</t>
+  </si>
+  <si>
+    <t>通行证</t>
+  </si>
+  <si>
+    <t>"sys_txz","panel"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -882,21 +900,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,30 +928,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,13 +950,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -978,18 +966,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,8 +1006,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,7 +1117,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,97 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,73 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,26 +1326,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,24 +1365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1391,6 +1376,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2078,12 +2096,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4944,11 +4962,74 @@
         <v>1620662399</v>
       </c>
     </row>
-    <row r="94" spans="10:10">
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="10:10">
-      <c r="J95" s="1"/>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>113</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="7">
+        <v>1623110400</v>
+      </c>
+      <c r="L94" s="7">
+        <v>1628351999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>112</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="26">
+        <v>-1</v>
+      </c>
+      <c r="L95" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N95">
